--- a/DroneDock.UnitTests/IO Files/Input_Coordinates_Only_For_Buildings.xlsx
+++ b/DroneDock.UnitTests/IO Files/Input_Coordinates_Only_For_Buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\source\repos\DroneDock.UnitTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C345DB1-3836-43AA-BE44-A0044C0C332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C831D9ED-C3B5-45B4-B674-1A10B4C3AA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B87B3960-9A41-4660-BF1B-B3A990A1AE66}"/>
   </bookViews>
@@ -36,32 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>49.157425988492484, 9.116101442162071</t>
   </si>
   <si>
-    <t>Aussiedlerhof "Gräsle/ Hoffmann" Im Lanzenäcker</t>
-  </si>
-  <si>
     <t>49.15663659162883, 9.1166181282122</t>
   </si>
   <si>
-    <t>Aussiedlerhof "xxxx" Lanzenäcket</t>
-  </si>
-  <si>
     <t>49.157891014392106, 9.11948986436657</t>
   </si>
   <si>
-    <t>Kernäcker 1, northern side</t>
-  </si>
-  <si>
     <t>49.15733930743538, 9.119702072670336</t>
   </si>
   <si>
-    <t>Kernäcker 1, southern side</t>
-  </si>
-  <si>
     <t>49.158379559587814, 9.12104638945849</t>
   </si>
   <si>
@@ -71,19 +59,10 @@
     <t>49.15809292540714, 9.123139702797818</t>
   </si>
   <si>
-    <t>Biesäcker 1</t>
-  </si>
-  <si>
     <t>49.15817781027809, 9.126205765995042</t>
   </si>
   <si>
-    <t>between Biesäcker 1 and Biesäcker 2</t>
-  </si>
-  <si>
     <t>49.15869579029354, 9.129394947816541</t>
-  </si>
-  <si>
-    <t>Biesäcker 1, Rollender Hundesalon</t>
   </si>
   <si>
     <t>Building</t>
@@ -150,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -163,14 +142,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,311 +476,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23B7165-212E-4DBF-9021-5C9B85988267}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" style="3"/>
-    <col min="5" max="5" width="36.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.453125" style="3"/>
+    <col min="3" max="3" width="11.453125" style="3"/>
+    <col min="4" max="4" width="36.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.453125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
